--- a/Hypnos V3.3/Bill of Materials - Hypnos V3.3.xlsx
+++ b/Hypnos V3.3/Bill of Materials - Hypnos V3.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namig\Documents\GitHub\OPEnS-Hypnos\Hypnos V3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99D6E9-C5C2-4F7B-B1C1-2233640C1891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318E529-2786-4235-B71B-B6EC3C367F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Digikey" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="76">
   <si>
     <t>Digikey</t>
   </si>
@@ -67,9 +67,6 @@
     <t>P channel Mosfet</t>
   </si>
   <si>
-    <t>DMP3099L-7DICT-ND</t>
-  </si>
-  <si>
     <t>P30KECT-ND</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>N channel Mosfet</t>
   </si>
   <si>
-    <t>DMN65D8L-7DICT-ND</t>
-  </si>
-  <si>
     <t>100k resistor 1%</t>
   </si>
   <si>
@@ -257,6 +251,18 @@
   </si>
   <si>
     <t>311-100KFRCT-ND</t>
+  </si>
+  <si>
+    <t>TSM2309CXRFGCT-ND</t>
+  </si>
+  <si>
+    <t>TSM3457CX6RFGCT-ND</t>
+  </si>
+  <si>
+    <t>DMN6140L-13DICT-ND</t>
+  </si>
+  <si>
+    <t>SL04-HE3-08CT-ND</t>
   </si>
 </sst>
 </file>
@@ -365,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -397,6 +403,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -680,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,7 +734,7 @@
       <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -736,17 +744,17 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="E2" s="9">
-        <v>0.33</v>
+        <v>0.68</v>
       </c>
       <c r="F2" s="9">
         <f>E2*C2</f>
-        <v>0.66</v>
+        <v>1.36</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
@@ -758,27 +766,27 @@
       <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="E3" s="9">
-        <v>0.41</v>
+        <v>0.84</v>
       </c>
       <c r="F3" s="9">
         <f>C3*E3</f>
-        <v>0.41</v>
+        <v>0.84</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
@@ -790,33 +798,33 @@
       <c r="M3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9">
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="F4" s="9">
         <f>E4*C4</f>
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -843,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="9">
         <v>0.1</v>
@@ -859,13 +867,13 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -875,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="9">
         <v>0.1</v>
@@ -891,7 +899,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -904,10 +912,10 @@
     </row>
     <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -923,7 +931,7 @@
         <v>1.95</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -937,13 +945,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="9">
         <v>8.77</v>
@@ -953,7 +961,7 @@
         <v>8.77</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -982,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9">
         <v>0.34</v>
@@ -998,13 +1006,13 @@
         <v>0.68</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
@@ -1014,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E12" s="9">
         <v>0.91</v>
@@ -1030,7 +1038,7 @@
         <v>0.91</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1044,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E13" s="14">
         <v>0.1</v>
@@ -1060,7 +1068,7 @@
         <v>0.2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -1076,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E14" s="9">
         <v>0.19</v>
@@ -1092,7 +1100,7 @@
         <v>0.38</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1108,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="E15" s="9">
         <v>0.51</v>
@@ -1124,13 +1132,13 @@
         <v>1.02</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -1140,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="9">
         <v>0.1</v>
@@ -1156,13 +1164,13 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -1172,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="9">
         <v>0.1</v>
@@ -1188,39 +1196,39 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E18" s="9">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F18" s="9">
         <f>E18*C18</f>
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1239,7 +1247,7 @@
       </c>
       <c r="F19" s="9">
         <f>SUM(F2:F18)</f>
-        <v>16.36</v>
+        <v>17.900000000000002</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -1335,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B778148E-242D-409E-9127-666EF26A5862}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,16 +1384,16 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="9">
         <v>0.15</v>
@@ -1395,7 +1403,7 @@
         <v>0.15</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>8</v>
@@ -1403,7 +1411,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
@@ -1412,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="9">
         <v>0.31</v>
@@ -1422,7 +1430,7 @@
         <v>0.62</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>8</v>
@@ -1433,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="9">
         <v>0.41</v>
@@ -1449,13 +1457,13 @@
         <v>0.41</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,16 +1473,16 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9">
         <v>0.1</v>
@@ -1484,24 +1492,24 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="9">
         <v>0.1</v>
@@ -1511,7 +1519,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="13">
         <v>1206</v>
@@ -1519,10 +1527,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -1538,11 +1546,11 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1550,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="9">
         <v>8.77</v>
@@ -1566,7 +1574,7 @@
         <v>8.77</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="13"/>
     </row>
@@ -1578,16 +1586,16 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="9">
         <v>0.33</v>
@@ -1597,27 +1605,27 @@
         <v>0.66</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="9">
         <v>0.91</v>
@@ -1627,22 +1635,22 @@
         <v>0.91</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="14">
         <v>0.09</v>
@@ -1652,7 +1660,7 @@
         <v>0.18</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" s="13">
         <v>1206</v>
@@ -1660,16 +1668,16 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="9">
         <v>0.18</v>
@@ -1679,7 +1687,7 @@
         <v>0.36</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="13">
         <v>1206</v>
@@ -1687,16 +1695,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="9">
         <v>0.43</v>
@@ -1706,24 +1714,24 @@
         <v>0.86</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="9">
         <v>0.1</v>
@@ -1733,24 +1741,24 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="9">
         <v>0.1</v>
@@ -1760,10 +1768,10 @@
         <v>0.1</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1771,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="9">
         <v>0.44</v>
@@ -1787,10 +1795,10 @@
         <v>0.44</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K18" s="10"/>
     </row>
@@ -1870,16 +1878,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="9">
         <v>0.16</v>
@@ -1889,7 +1897,7 @@
         <v>0.32</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>8</v>
@@ -1897,7 +1905,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>9</v>
@@ -1906,7 +1914,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="9">
         <v>0.33</v>
@@ -1916,7 +1924,7 @@
         <v>0.66</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>8</v>
@@ -1924,16 +1932,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E4" s="9">
         <v>0.39</v>
@@ -1943,10 +1951,10 @@
         <v>0.39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,16 +1964,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="9">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="9">
         <v>0.1</v>
@@ -1975,24 +1983,24 @@
         <v>0.2</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="9">
         <v>0.1</v>
@@ -2002,7 +2010,7 @@
         <v>0.2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="13">
         <v>1206</v>
@@ -2010,10 +2018,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9">
         <v>1</v>
@@ -2029,22 +2037,22 @@
         <v>1.95</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="9">
         <v>9.0399999999999991</v>
@@ -2054,7 +2062,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K9" s="13"/>
     </row>
@@ -2065,16 +2073,16 @@
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="9">
         <v>0.34</v>
@@ -2084,24 +2092,24 @@
         <v>0.68</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="9">
         <v>0.91</v>
@@ -2111,22 +2119,22 @@
         <v>0.91</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="14">
         <v>0.15</v>
@@ -2136,7 +2144,7 @@
         <v>0.3</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K13" s="13">
         <v>1206</v>
@@ -2144,16 +2152,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="9">
         <v>0.26</v>
@@ -2163,7 +2171,7 @@
         <v>0.52</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K14" s="13">
         <v>1206</v>
@@ -2171,16 +2179,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="9">
         <v>2</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="9">
         <v>0.5</v>
@@ -2190,24 +2198,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9">
         <v>0.1</v>
@@ -2217,24 +2225,24 @@
         <v>0.1</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C17" s="9">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="9">
         <v>0.23</v>
@@ -2244,24 +2252,24 @@
         <v>0.23</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="9">
         <v>1</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="9">
         <v>0.44</v>
@@ -2271,10 +2279,10 @@
         <v>0.44</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K18" s="10"/>
     </row>
